--- a/packages/central-server/__tests__/importers/programs-charting-simple-multiple-valid.xlsx
+++ b/packages/central-server/__tests__/importers/programs-charting-simple-multiple-valid.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>programName</t>
   </si>
@@ -123,7 +123,7 @@
     <t>visibilityStatus</t>
   </si>
   <si>
-    <t>testchartonecode0</t>
+    <t>PatientChartingDate</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>testcharttwocode0</t>
   </si>
   <si>
     <t>testcharttwocode1</t>
@@ -504,10 +501,10 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -521,10 +518,10 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1622,7 +1619,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1639,7 +1636,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1653,7 +1650,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2741,7 +2738,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -2754,37 +2751,37 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
+      <c r="A3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
+      <c r="A4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
+      <c r="A5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
